--- a/Data/GGEE_23_Locations_1.xlsx
+++ b/Data/GGEE_23_Locations_1.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristachisholm/Documents/GitHub/GGEESummer23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5EC60B-407C-A541-97F9-080B6359E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B391E8CE-4960-4844-B542-0B64E7E0E441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="22920" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -468,7 +481,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
